--- a/00PYTHON/05Python_DSA/Graphs/train_stations.xlsx
+++ b/00PYTHON/05Python_DSA/Graphs/train_stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\00Louis_Engineering_Computer_Science_Resources\00PYTHON\05Python_DSA\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA7E54-956C-4AE1-B829-FCBA6BA4121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ECEEAA-3158-4F12-BB79-3CFA3FAEC08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="2088" windowWidth="13944" windowHeight="8880" xr2:uid="{529E5274-3C00-443B-8575-EDDD74D26583}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{529E5274-3C00-443B-8575-EDDD74D26583}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,21 +428,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098DE4BE-4FD3-4A66-9EE2-A493085C1A0A}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="23.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
